--- a/biology/Médecine/Edith_Helm/Edith_Helm.xlsx
+++ b/biology/Médecine/Edith_Helm/Edith_Helm.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Edith Helm (née le 29 avril 1935, décédée à Chandler, Oklahoma, le 4 avril 2011) est la plus ancienne greffée du rein au monde. Elle fut la première à mener une grossesse à terme, deux ans après avoir reçu un rein de sa sœur jumelle, Wanda Foster, en 1956. Elles furent opérées par le Dr. Joseph Murray qui devint prix Nobel de médecine en 1990.
 </t>
@@ -511,7 +523,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">« Présentation de son cas en anglais avec photos » (archivé sur Internet Archive)
  Portail de la médecine                     </t>
